--- a/FSV_OP_CF.xlsx
+++ b/FSV_OP_CF.xlsx
@@ -501,16 +501,16 @@
         <v>-766</v>
       </c>
       <c r="I2" t="n">
-        <v>-759.7194346370017</v>
+        <v>-747.458574058119</v>
       </c>
       <c r="J2" t="n">
-        <v>-1119.582640917612</v>
+        <v>-796.6647061652127</v>
       </c>
       <c r="K2" t="n">
-        <v>-776.385355532455</v>
+        <v>-1115.215093652434</v>
       </c>
       <c r="L2" t="n">
-        <v>-1242.064548309751</v>
+        <v>-1048.821401735263</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_CF.xlsx
+++ b/FSV_OP_CF.xlsx
@@ -501,16 +501,16 @@
         <v>-766</v>
       </c>
       <c r="I2" t="n">
-        <v>-747.458574058119</v>
+        <v>-1027.490629871329</v>
       </c>
       <c r="J2" t="n">
-        <v>-796.6647061652127</v>
+        <v>-951.324131033499</v>
       </c>
       <c r="K2" t="n">
-        <v>-1115.215093652434</v>
+        <v>-1006.803595172069</v>
       </c>
       <c r="L2" t="n">
-        <v>-1048.821401735263</v>
+        <v>-919.0589736600367</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_CF.xlsx
+++ b/FSV_OP_CF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,16 +501,296 @@
         <v>-766</v>
       </c>
       <c r="I2" t="n">
-        <v>-1027.490629871329</v>
+        <v>-843.4795905276839</v>
       </c>
       <c r="J2" t="n">
-        <v>-951.324131033499</v>
+        <v>-996.7252362029378</v>
       </c>
       <c r="K2" t="n">
-        <v>-1006.803595172069</v>
+        <v>-1145.794524480203</v>
       </c>
       <c r="L2" t="n">
-        <v>-919.0589736600367</v>
+        <v>-974.9018457948943</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Stock_Comp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>184</v>
+      </c>
+      <c r="C3" t="n">
+        <v>176</v>
+      </c>
+      <c r="D3" t="n">
+        <v>175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>153</v>
+      </c>
+      <c r="F3" t="n">
+        <v>168</v>
+      </c>
+      <c r="G3" t="n">
+        <v>217</v>
+      </c>
+      <c r="H3" t="n">
+        <v>188</v>
+      </c>
+      <c r="I3" t="n">
+        <v>212.2213806428962</v>
+      </c>
+      <c r="J3" t="n">
+        <v>206.9073714813546</v>
+      </c>
+      <c r="K3" t="n">
+        <v>167.6356116896139</v>
+      </c>
+      <c r="L3" t="n">
+        <v>208.364564301032</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Other_CFO</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>70</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3087</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1685</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-574</v>
+      </c>
+      <c r="F4" t="n">
+        <v>173</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1012</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-1085</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1108.920043646716</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-678.6765871447857</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-2352.393161534762</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-342.7541317678737</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Net_Acq</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-2277</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-535</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-410</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-345</v>
+      </c>
+      <c r="H5" t="n">
+        <v>600</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Other_CFI</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2461</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2390</v>
+      </c>
+      <c r="E6" t="n">
+        <v>356</v>
+      </c>
+      <c r="F6" t="n">
+        <v>329</v>
+      </c>
+      <c r="G6" t="n">
+        <v>179</v>
+      </c>
+      <c r="H6" t="n">
+        <v>73</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CS_Issue</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>409</v>
+      </c>
+      <c r="C7" t="n">
+        <v>520</v>
+      </c>
+      <c r="D7" t="n">
+        <v>267</v>
+      </c>
+      <c r="E7" t="n">
+        <v>498</v>
+      </c>
+      <c r="F7" t="n">
+        <v>393</v>
+      </c>
+      <c r="G7" t="n">
+        <v>229</v>
+      </c>
+      <c r="H7" t="n">
+        <v>320</v>
+      </c>
+      <c r="I7" t="n">
+        <v>506.0665107572442</v>
+      </c>
+      <c r="J7" t="n">
+        <v>337.3392101423169</v>
+      </c>
+      <c r="K7" t="n">
+        <v>492.5545361323168</v>
+      </c>
+      <c r="L7" t="n">
+        <v>383.5008883433524</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CS_Repo</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2079</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2889</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-4000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-4400</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-3714</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-3380</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-4200</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-4894.567280006761</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-5388.07343502548</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-3677.119616345243</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-6381.578469469154</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Dividends</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1915</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2119</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-2272</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-2442</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-2592</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-2626</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-2719</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-2787.938659060627</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-2867.823889902208</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-2998.092614457435</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-2989.41486447436</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_CF.xlsx
+++ b/FSV_OP_CF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,16 +501,16 @@
         <v>-766</v>
       </c>
       <c r="I2" t="n">
-        <v>-843.4795905276839</v>
+        <v>-1104.766781667492</v>
       </c>
       <c r="J2" t="n">
-        <v>-996.7252362029378</v>
+        <v>-1099.931475622423</v>
       </c>
       <c r="K2" t="n">
-        <v>-1145.794524480203</v>
+        <v>-781.6332398060954</v>
       </c>
       <c r="L2" t="n">
-        <v>-974.9018457948943</v>
+        <v>-1100.17169299283</v>
       </c>
     </row>
     <row r="3">
@@ -541,16 +541,16 @@
         <v>188</v>
       </c>
       <c r="I3" t="n">
-        <v>212.2213806428962</v>
+        <v>168.5481371230552</v>
       </c>
       <c r="J3" t="n">
-        <v>206.9073714813546</v>
+        <v>161.5802080985589</v>
       </c>
       <c r="K3" t="n">
-        <v>167.6356116896139</v>
+        <v>206.8108437420933</v>
       </c>
       <c r="L3" t="n">
-        <v>208.364564301032</v>
+        <v>227.906772656446</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>-1085</v>
       </c>
       <c r="I4" t="n">
-        <v>1108.920043646716</v>
+        <v>-449.9431670757802</v>
       </c>
       <c r="J4" t="n">
-        <v>-678.6765871447857</v>
+        <v>-1327.683441256394</v>
       </c>
       <c r="K4" t="n">
-        <v>-2352.393161534762</v>
+        <v>-263.0332060948733</v>
       </c>
       <c r="L4" t="n">
-        <v>-342.7541317678737</v>
+        <v>969.8450318391866</v>
       </c>
     </row>
     <row r="5">
@@ -701,16 +701,16 @@
         <v>320</v>
       </c>
       <c r="I7" t="n">
-        <v>506.0665107572442</v>
+        <v>298.3168332191725</v>
       </c>
       <c r="J7" t="n">
-        <v>337.3392101423169</v>
+        <v>323.9057789682586</v>
       </c>
       <c r="K7" t="n">
-        <v>492.5545361323168</v>
+        <v>396.8261101331022</v>
       </c>
       <c r="L7" t="n">
-        <v>383.5008883433524</v>
+        <v>441.5892508344505</v>
       </c>
     </row>
     <row r="8">
@@ -741,56 +741,376 @@
         <v>-4200</v>
       </c>
       <c r="I8" t="n">
-        <v>-4894.567280006761</v>
+        <v>-2410.779598967174</v>
       </c>
       <c r="J8" t="n">
-        <v>-5388.07343502548</v>
+        <v>-1956.502632947976</v>
       </c>
       <c r="K8" t="n">
-        <v>-3677.119616345243</v>
+        <v>-4339.397835086835</v>
       </c>
       <c r="L8" t="n">
-        <v>-6381.578469469154</v>
+        <v>-3824.072699536488</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>ST_Borrow</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2464</v>
+      </c>
+      <c r="C9" t="n">
+        <v>169</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-204</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>74</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-786</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>LT_Borrow</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6406</v>
+      </c>
+      <c r="C10" t="n">
+        <v>946</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1303</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-177</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5817</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-2400</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1103</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Other_CFF</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-143</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2480</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-79</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-59</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-81</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-48</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
           <t>Dividends</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B12" t="n">
         <v>-1915</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C12" t="n">
         <v>-2119</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D12" t="n">
         <v>-2272</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E12" t="n">
         <v>-2442</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F12" t="n">
         <v>-2592</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G12" t="n">
         <v>-2626</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H12" t="n">
         <v>-2719</v>
       </c>
-      <c r="I9" t="n">
-        <v>-2787.938659060627</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-2867.823889902208</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-2998.092614457435</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-2989.41486447436</v>
+      <c r="I12" t="n">
+        <v>-3069.305188683498</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-3244.824988888169</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-3363.5094742452</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-3645.500880669797</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SubT_CFO</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5498</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5966</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6434</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6897</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6208</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6038</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5274</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5553.831725255173</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4680.568905535814</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6496.426808489288</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7708.756796750013</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SubT_CFI</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-3342</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3574</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1027</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-533</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-987</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1061</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-93</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1104.766781667492</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1099.931475622423</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-781.6332398060954</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-1100.17169299283</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>SubT_CFF</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>346</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3516</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-5032</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-6600</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-81</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-8254</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-6330</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-5181.7679544315</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-4877.421842867887</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-7306.081199198932</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-7027.984329371834</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Cash_Beg</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5455</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7957</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6833</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9262</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9026</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14166</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10889</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9740</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9007.296989156181</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7710.512576201685</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6119.224945685946</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Cash_End</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7957</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6833</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9262</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9026</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14166</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10889</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9740</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9007.296989156181</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7710.512576201685</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6119.224945685946</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5699.825720071295</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_CF.xlsx
+++ b/FSV_OP_CF.xlsx
@@ -501,16 +501,16 @@
         <v>-766</v>
       </c>
       <c r="I2" t="n">
-        <v>-1104.766781667492</v>
+        <v>-892.4429705156205</v>
       </c>
       <c r="J2" t="n">
-        <v>-1099.931475622423</v>
+        <v>-1097.32133224479</v>
       </c>
       <c r="K2" t="n">
-        <v>-781.6332398060954</v>
+        <v>-767.5733385031235</v>
       </c>
       <c r="L2" t="n">
-        <v>-1100.17169299283</v>
+        <v>-1029.497049427586</v>
       </c>
     </row>
     <row r="3">
@@ -541,16 +541,16 @@
         <v>188</v>
       </c>
       <c r="I3" t="n">
-        <v>168.5481371230552</v>
+        <v>185.2030211225105</v>
       </c>
       <c r="J3" t="n">
-        <v>161.5802080985589</v>
+        <v>236.1829952769443</v>
       </c>
       <c r="K3" t="n">
-        <v>206.8108437420933</v>
+        <v>239.5675809603555</v>
       </c>
       <c r="L3" t="n">
-        <v>227.906772656446</v>
+        <v>201.4641457021386</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>-1085</v>
       </c>
       <c r="I4" t="n">
-        <v>-449.9431670757802</v>
+        <v>2126.372451448279</v>
       </c>
       <c r="J4" t="n">
-        <v>-1327.683441256394</v>
+        <v>1339.503350650511</v>
       </c>
       <c r="K4" t="n">
-        <v>-263.0332060948733</v>
+        <v>-172.4777774267332</v>
       </c>
       <c r="L4" t="n">
-        <v>969.8450318391866</v>
+        <v>-673.7800485714001</v>
       </c>
     </row>
     <row r="5">
@@ -701,16 +701,16 @@
         <v>320</v>
       </c>
       <c r="I7" t="n">
-        <v>298.3168332191725</v>
+        <v>462.8616550505511</v>
       </c>
       <c r="J7" t="n">
-        <v>323.9057789682586</v>
+        <v>253.034975033651</v>
       </c>
       <c r="K7" t="n">
-        <v>396.8261101331022</v>
+        <v>488.9059484228421</v>
       </c>
       <c r="L7" t="n">
-        <v>441.5892508344505</v>
+        <v>495.6393238370807</v>
       </c>
     </row>
     <row r="8">
@@ -741,16 +741,16 @@
         <v>-4200</v>
       </c>
       <c r="I8" t="n">
-        <v>-2410.779598967174</v>
+        <v>-4916.99374083756</v>
       </c>
       <c r="J8" t="n">
-        <v>-1956.502632947976</v>
+        <v>-2436.633106792458</v>
       </c>
       <c r="K8" t="n">
-        <v>-4339.397835086835</v>
+        <v>-4623.452575461165</v>
       </c>
       <c r="L8" t="n">
-        <v>-3824.072699536488</v>
+        <v>-4862.770034436609</v>
       </c>
     </row>
     <row r="9">
@@ -901,16 +901,16 @@
         <v>-2719</v>
       </c>
       <c r="I12" t="n">
-        <v>-3069.305188683498</v>
+        <v>-2918.073546660494</v>
       </c>
       <c r="J12" t="n">
-        <v>-3244.824988888169</v>
+        <v>-2998.479376955234</v>
       </c>
       <c r="K12" t="n">
-        <v>-3363.5094742452</v>
+        <v>-3192.002384532809</v>
       </c>
       <c r="L12" t="n">
-        <v>-3645.500880669797</v>
+        <v>-3376.817247844789</v>
       </c>
     </row>
     <row r="13">
@@ -941,16 +941,16 @@
         <v>5274</v>
       </c>
       <c r="I13" t="n">
-        <v>5553.831725255173</v>
+        <v>7972.228830180024</v>
       </c>
       <c r="J13" t="n">
-        <v>4680.568905535814</v>
+        <v>7961.366512416971</v>
       </c>
       <c r="K13" t="n">
-        <v>6496.426808489288</v>
+        <v>5943.026117165255</v>
       </c>
       <c r="L13" t="n">
-        <v>7708.756796750013</v>
+        <v>6592.52722462266</v>
       </c>
     </row>
     <row r="14">
@@ -981,16 +981,16 @@
         <v>-93</v>
       </c>
       <c r="I14" t="n">
-        <v>-1104.766781667492</v>
+        <v>-892.4429705156205</v>
       </c>
       <c r="J14" t="n">
-        <v>-1099.931475622423</v>
+        <v>-1097.32133224479</v>
       </c>
       <c r="K14" t="n">
-        <v>-781.6332398060954</v>
+        <v>-767.5733385031235</v>
       </c>
       <c r="L14" t="n">
-        <v>-1100.17169299283</v>
+        <v>-1029.497049427586</v>
       </c>
     </row>
     <row r="15">
@@ -1021,16 +1021,16 @@
         <v>-6330</v>
       </c>
       <c r="I15" t="n">
-        <v>-5181.7679544315</v>
+        <v>-7372.205632447503</v>
       </c>
       <c r="J15" t="n">
-        <v>-4877.421842867887</v>
+        <v>-5182.077508714041</v>
       </c>
       <c r="K15" t="n">
-        <v>-7306.081199198932</v>
+        <v>-7326.549011571133</v>
       </c>
       <c r="L15" t="n">
-        <v>-7027.984329371834</v>
+        <v>-7743.947958444316</v>
       </c>
     </row>
     <row r="16">
@@ -1064,13 +1064,13 @@
         <v>9740</v>
       </c>
       <c r="J16" t="n">
-        <v>9007.296989156181</v>
+        <v>9447.580227216897</v>
       </c>
       <c r="K16" t="n">
-        <v>7710.512576201685</v>
+        <v>11129.54789867503</v>
       </c>
       <c r="L16" t="n">
-        <v>6119.224945685946</v>
+        <v>8978.451665766035</v>
       </c>
     </row>
     <row r="17">
@@ -1101,16 +1101,16 @@
         <v>9740</v>
       </c>
       <c r="I17" t="n">
-        <v>9007.296989156181</v>
+        <v>9447.580227216897</v>
       </c>
       <c r="J17" t="n">
-        <v>7710.512576201685</v>
+        <v>11129.54789867503</v>
       </c>
       <c r="K17" t="n">
-        <v>6119.224945685946</v>
+        <v>8978.451665766035</v>
       </c>
       <c r="L17" t="n">
-        <v>5699.825720071295</v>
+        <v>6797.533882516793</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_CF.xlsx
+++ b/FSV_OP_CF.xlsx
@@ -501,16 +501,16 @@
         <v>-766</v>
       </c>
       <c r="I2" t="n">
-        <v>-892.4429705156205</v>
+        <v>-1011.461499324182</v>
       </c>
       <c r="J2" t="n">
-        <v>-1097.32133224479</v>
+        <v>-1266.576504936776</v>
       </c>
       <c r="K2" t="n">
-        <v>-767.5733385031235</v>
+        <v>-1152.018271701992</v>
       </c>
       <c r="L2" t="n">
-        <v>-1029.497049427586</v>
+        <v>-1213.365748836801</v>
       </c>
     </row>
     <row r="3">
@@ -541,16 +541,16 @@
         <v>188</v>
       </c>
       <c r="I3" t="n">
-        <v>185.2030211225105</v>
+        <v>160.96326567491</v>
       </c>
       <c r="J3" t="n">
-        <v>236.1829952769443</v>
+        <v>219.8840840229551</v>
       </c>
       <c r="K3" t="n">
-        <v>239.5675809603555</v>
+        <v>187.1286923172861</v>
       </c>
       <c r="L3" t="n">
-        <v>201.4641457021386</v>
+        <v>228.8126936743245</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>-1085</v>
       </c>
       <c r="I4" t="n">
-        <v>2126.372451448279</v>
+        <v>-1242.662878963134</v>
       </c>
       <c r="J4" t="n">
-        <v>1339.503350650511</v>
+        <v>-456.4827200102094</v>
       </c>
       <c r="K4" t="n">
-        <v>-172.4777774267332</v>
+        <v>4304.663651703039</v>
       </c>
       <c r="L4" t="n">
-        <v>-673.7800485714001</v>
+        <v>-117.8461777234953</v>
       </c>
     </row>
     <row r="5">
@@ -701,16 +701,16 @@
         <v>320</v>
       </c>
       <c r="I7" t="n">
-        <v>462.8616550505511</v>
+        <v>427.7056816488208</v>
       </c>
       <c r="J7" t="n">
-        <v>253.034975033651</v>
+        <v>421.7210368289908</v>
       </c>
       <c r="K7" t="n">
-        <v>488.9059484228421</v>
+        <v>712.6775614321747</v>
       </c>
       <c r="L7" t="n">
-        <v>495.6393238370807</v>
+        <v>439.909049161181</v>
       </c>
     </row>
     <row r="8">
@@ -741,16 +741,16 @@
         <v>-4200</v>
       </c>
       <c r="I8" t="n">
-        <v>-4916.99374083756</v>
+        <v>-3371.438280716138</v>
       </c>
       <c r="J8" t="n">
-        <v>-2436.633106792458</v>
+        <v>-2702.829672515332</v>
       </c>
       <c r="K8" t="n">
-        <v>-4623.452575461165</v>
+        <v>-2404.450489648804</v>
       </c>
       <c r="L8" t="n">
-        <v>-4862.770034436609</v>
+        <v>-5723.934592750191</v>
       </c>
     </row>
     <row r="9">
@@ -901,16 +901,16 @@
         <v>-2719</v>
       </c>
       <c r="I12" t="n">
-        <v>-2918.073546660494</v>
+        <v>-2811.165504193611</v>
       </c>
       <c r="J12" t="n">
-        <v>-2998.479376955234</v>
+        <v>-2982.594321450798</v>
       </c>
       <c r="K12" t="n">
-        <v>-3192.002384532809</v>
+        <v>-3208.966896903004</v>
       </c>
       <c r="L12" t="n">
-        <v>-3376.817247844789</v>
+        <v>-3396.207053767273</v>
       </c>
     </row>
     <row r="13">
@@ -941,16 +941,16 @@
         <v>5274</v>
       </c>
       <c r="I13" t="n">
-        <v>7972.228830180024</v>
+        <v>4935.628010809129</v>
       </c>
       <c r="J13" t="n">
-        <v>7961.366512416971</v>
+        <v>6287.224380078062</v>
       </c>
       <c r="K13" t="n">
-        <v>5943.026117165255</v>
+        <v>10861.57958014235</v>
       </c>
       <c r="L13" t="n">
-        <v>6592.52722462266</v>
+        <v>7299.753011131994</v>
       </c>
     </row>
     <row r="14">
@@ -981,16 +981,16 @@
         <v>-93</v>
       </c>
       <c r="I14" t="n">
-        <v>-892.4429705156205</v>
+        <v>-1011.461499324182</v>
       </c>
       <c r="J14" t="n">
-        <v>-1097.32133224479</v>
+        <v>-1266.576504936776</v>
       </c>
       <c r="K14" t="n">
-        <v>-767.5733385031235</v>
+        <v>-1152.018271701992</v>
       </c>
       <c r="L14" t="n">
-        <v>-1029.497049427586</v>
+        <v>-1213.365748836801</v>
       </c>
     </row>
     <row r="15">
@@ -1021,16 +1021,16 @@
         <v>-6330</v>
       </c>
       <c r="I15" t="n">
-        <v>-7372.205632447503</v>
+        <v>-5754.898103260928</v>
       </c>
       <c r="J15" t="n">
-        <v>-5182.077508714041</v>
+        <v>-5263.70295713714</v>
       </c>
       <c r="K15" t="n">
-        <v>-7326.549011571133</v>
+        <v>-4900.739825119634</v>
       </c>
       <c r="L15" t="n">
-        <v>-7743.947958444316</v>
+        <v>-8680.232597356284</v>
       </c>
     </row>
     <row r="16">
@@ -1064,13 +1064,13 @@
         <v>9740</v>
       </c>
       <c r="J16" t="n">
-        <v>9447.580227216897</v>
+        <v>7909.268408224018</v>
       </c>
       <c r="K16" t="n">
-        <v>11129.54789867503</v>
+        <v>7666.213326228162</v>
       </c>
       <c r="L16" t="n">
-        <v>8978.451665766035</v>
+        <v>12475.03480954889</v>
       </c>
     </row>
     <row r="17">
@@ -1101,16 +1101,16 @@
         <v>9740</v>
       </c>
       <c r="I17" t="n">
-        <v>9447.580227216897</v>
+        <v>7909.268408224018</v>
       </c>
       <c r="J17" t="n">
-        <v>11129.54789867503</v>
+        <v>7666.213326228162</v>
       </c>
       <c r="K17" t="n">
-        <v>8978.451665766035</v>
+        <v>12475.03480954889</v>
       </c>
       <c r="L17" t="n">
-        <v>6797.533882516793</v>
+        <v>9881.189474487797</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_CF.xlsx
+++ b/FSV_OP_CF.xlsx
@@ -501,16 +501,16 @@
         <v>-766</v>
       </c>
       <c r="I2" t="n">
-        <v>-1011.461499324182</v>
+        <v>-696.6569003817681</v>
       </c>
       <c r="J2" t="n">
-        <v>-1266.576504936776</v>
+        <v>-698.1714089077504</v>
       </c>
       <c r="K2" t="n">
-        <v>-1152.018271701992</v>
+        <v>-1102.929616851238</v>
       </c>
       <c r="L2" t="n">
-        <v>-1213.365748836801</v>
+        <v>-1291.046084890242</v>
       </c>
     </row>
     <row r="3">
@@ -541,16 +541,16 @@
         <v>188</v>
       </c>
       <c r="I3" t="n">
-        <v>160.96326567491</v>
+        <v>151.1627002932296</v>
       </c>
       <c r="J3" t="n">
-        <v>219.8840840229551</v>
+        <v>227.8573595113043</v>
       </c>
       <c r="K3" t="n">
-        <v>187.1286923172861</v>
+        <v>177.227962735012</v>
       </c>
       <c r="L3" t="n">
-        <v>228.8126936743245</v>
+        <v>188.9326135427144</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>-1085</v>
       </c>
       <c r="I4" t="n">
-        <v>-1242.662878963134</v>
+        <v>-59.18886484571259</v>
       </c>
       <c r="J4" t="n">
-        <v>-456.4827200102094</v>
+        <v>-1886.586158961402</v>
       </c>
       <c r="K4" t="n">
-        <v>4304.663651703039</v>
+        <v>-722.7815308590721</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.8461777234953</v>
+        <v>-1738.337133388897</v>
       </c>
     </row>
     <row r="5">
@@ -701,16 +701,16 @@
         <v>320</v>
       </c>
       <c r="I7" t="n">
-        <v>427.7056816488208</v>
+        <v>333.3814380078419</v>
       </c>
       <c r="J7" t="n">
-        <v>421.7210368289908</v>
+        <v>549.7692303279306</v>
       </c>
       <c r="K7" t="n">
-        <v>712.6775614321747</v>
+        <v>400.3415240630691</v>
       </c>
       <c r="L7" t="n">
-        <v>439.909049161181</v>
+        <v>405.1016248026572</v>
       </c>
     </row>
     <row r="8">
@@ -741,16 +741,16 @@
         <v>-4200</v>
       </c>
       <c r="I8" t="n">
-        <v>-3371.438280716138</v>
+        <v>-2841.624438484381</v>
       </c>
       <c r="J8" t="n">
-        <v>-2702.829672515332</v>
+        <v>-3282.892842408652</v>
       </c>
       <c r="K8" t="n">
-        <v>-2404.450489648804</v>
+        <v>-4049.258717953375</v>
       </c>
       <c r="L8" t="n">
-        <v>-5723.934592750191</v>
+        <v>-2970.348688479941</v>
       </c>
     </row>
     <row r="9">
@@ -901,16 +901,16 @@
         <v>-2719</v>
       </c>
       <c r="I12" t="n">
-        <v>-2811.165504193611</v>
+        <v>-3001.091476134421</v>
       </c>
       <c r="J12" t="n">
-        <v>-2982.594321450798</v>
+        <v>-3125.313980251211</v>
       </c>
       <c r="K12" t="n">
-        <v>-3208.966896903004</v>
+        <v>-3332.784688689147</v>
       </c>
       <c r="L12" t="n">
-        <v>-3396.207053767273</v>
+        <v>-3531.460195642726</v>
       </c>
     </row>
     <row r="13">
@@ -941,16 +941,16 @@
         <v>5274</v>
       </c>
       <c r="I13" t="n">
-        <v>4935.628010809129</v>
+        <v>5829.706686423782</v>
       </c>
       <c r="J13" t="n">
-        <v>6287.224380078062</v>
+        <v>4884.980120778461</v>
       </c>
       <c r="K13" t="n">
-        <v>10861.57958014235</v>
+        <v>6193.490373327477</v>
       </c>
       <c r="L13" t="n">
-        <v>7299.753011131994</v>
+        <v>5503.88775007696</v>
       </c>
     </row>
     <row r="14">
@@ -981,16 +981,16 @@
         <v>-93</v>
       </c>
       <c r="I14" t="n">
-        <v>-1011.461499324182</v>
+        <v>-696.6569003817681</v>
       </c>
       <c r="J14" t="n">
-        <v>-1266.576504936776</v>
+        <v>-698.1714089077504</v>
       </c>
       <c r="K14" t="n">
-        <v>-1152.018271701992</v>
+        <v>-1102.929616851238</v>
       </c>
       <c r="L14" t="n">
-        <v>-1213.365748836801</v>
+        <v>-1291.046084890242</v>
       </c>
     </row>
     <row r="15">
@@ -1021,16 +1021,16 @@
         <v>-6330</v>
       </c>
       <c r="I15" t="n">
-        <v>-5754.898103260928</v>
+        <v>-5509.33447661096</v>
       </c>
       <c r="J15" t="n">
-        <v>-5263.70295713714</v>
+        <v>-5858.437592331932</v>
       </c>
       <c r="K15" t="n">
-        <v>-4900.739825119634</v>
+        <v>-6981.701882579453</v>
       </c>
       <c r="L15" t="n">
-        <v>-8680.232597356284</v>
+        <v>-6096.70725932001</v>
       </c>
     </row>
     <row r="16">
@@ -1064,13 +1064,13 @@
         <v>9740</v>
       </c>
       <c r="J16" t="n">
-        <v>7909.268408224018</v>
+        <v>9363.715309431054</v>
       </c>
       <c r="K16" t="n">
-        <v>7666.213326228162</v>
+        <v>7692.086428969832</v>
       </c>
       <c r="L16" t="n">
-        <v>12475.03480954889</v>
+        <v>5800.945302866619</v>
       </c>
     </row>
     <row r="17">
@@ -1101,16 +1101,16 @@
         <v>9740</v>
       </c>
       <c r="I17" t="n">
-        <v>7909.268408224018</v>
+        <v>9363.715309431054</v>
       </c>
       <c r="J17" t="n">
-        <v>7666.213326228162</v>
+        <v>7692.086428969832</v>
       </c>
       <c r="K17" t="n">
-        <v>12475.03480954889</v>
+        <v>5800.945302866619</v>
       </c>
       <c r="L17" t="n">
-        <v>9881.189474487797</v>
+        <v>3917.079708733329</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_CF.xlsx
+++ b/FSV_OP_CF.xlsx
@@ -501,16 +501,16 @@
         <v>-766</v>
       </c>
       <c r="I2" t="n">
-        <v>-696.6569003817681</v>
+        <v>-787.7032486558159</v>
       </c>
       <c r="J2" t="n">
-        <v>-698.1714089077504</v>
+        <v>-946.608111458621</v>
       </c>
       <c r="K2" t="n">
-        <v>-1102.929616851238</v>
+        <v>-1169.895488528852</v>
       </c>
       <c r="L2" t="n">
-        <v>-1291.046084890242</v>
+        <v>-1150.659373151219</v>
       </c>
     </row>
     <row r="3">
@@ -541,16 +541,16 @@
         <v>188</v>
       </c>
       <c r="I3" t="n">
-        <v>151.1627002932296</v>
+        <v>170.1521441953859</v>
       </c>
       <c r="J3" t="n">
-        <v>227.8573595113043</v>
+        <v>168.2991585329978</v>
       </c>
       <c r="K3" t="n">
-        <v>177.227962735012</v>
+        <v>168.0305231723117</v>
       </c>
       <c r="L3" t="n">
-        <v>188.9326135427144</v>
+        <v>245.2872317754778</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>-1085</v>
       </c>
       <c r="I4" t="n">
-        <v>-59.18886484571259</v>
+        <v>-71.31120451205405</v>
       </c>
       <c r="J4" t="n">
-        <v>-1886.586158961402</v>
+        <v>2554.344613291309</v>
       </c>
       <c r="K4" t="n">
-        <v>-722.7815308590721</v>
+        <v>-662.4177819604761</v>
       </c>
       <c r="L4" t="n">
-        <v>-1738.337133388897</v>
+        <v>203.4995346635321</v>
       </c>
     </row>
     <row r="5">
@@ -701,16 +701,16 @@
         <v>320</v>
       </c>
       <c r="I7" t="n">
-        <v>333.3814380078419</v>
+        <v>418.9225408557108</v>
       </c>
       <c r="J7" t="n">
-        <v>549.7692303279306</v>
+        <v>581.5643884864005</v>
       </c>
       <c r="K7" t="n">
-        <v>400.3415240630691</v>
+        <v>370.4145918210125</v>
       </c>
       <c r="L7" t="n">
-        <v>405.1016248026572</v>
+        <v>350.5574812988546</v>
       </c>
     </row>
     <row r="8">
@@ -741,16 +741,16 @@
         <v>-4200</v>
       </c>
       <c r="I8" t="n">
-        <v>-2841.624438484381</v>
+        <v>-4242.771201483841</v>
       </c>
       <c r="J8" t="n">
-        <v>-3282.892842408652</v>
+        <v>-2183.666503550774</v>
       </c>
       <c r="K8" t="n">
-        <v>-4049.258717953375</v>
+        <v>-3519.613501329386</v>
       </c>
       <c r="L8" t="n">
-        <v>-2970.348688479941</v>
+        <v>-2864.600538806159</v>
       </c>
     </row>
     <row r="9">
@@ -901,16 +901,16 @@
         <v>-2719</v>
       </c>
       <c r="I12" t="n">
-        <v>-3001.091476134421</v>
+        <v>-2880.619792452594</v>
       </c>
       <c r="J12" t="n">
-        <v>-3125.313980251211</v>
+        <v>-3103.596142367488</v>
       </c>
       <c r="K12" t="n">
-        <v>-3332.784688689147</v>
+        <v>-3339.414249613178</v>
       </c>
       <c r="L12" t="n">
-        <v>-3531.460195642726</v>
+        <v>-3445.118573565038</v>
       </c>
     </row>
     <row r="13">
@@ -941,16 +941,16 @@
         <v>5274</v>
       </c>
       <c r="I13" t="n">
-        <v>5829.706686423782</v>
+        <v>6030.740283271605</v>
       </c>
       <c r="J13" t="n">
-        <v>4884.980120778461</v>
+        <v>8572.709414800009</v>
       </c>
       <c r="K13" t="n">
-        <v>6193.490373327477</v>
+        <v>5610.305854675009</v>
       </c>
       <c r="L13" t="n">
-        <v>5503.88775007696</v>
+        <v>7498.052758033285</v>
       </c>
     </row>
     <row r="14">
@@ -981,16 +981,16 @@
         <v>-93</v>
       </c>
       <c r="I14" t="n">
-        <v>-696.6569003817681</v>
+        <v>-787.7032486558159</v>
       </c>
       <c r="J14" t="n">
-        <v>-698.1714089077504</v>
+        <v>-946.608111458621</v>
       </c>
       <c r="K14" t="n">
-        <v>-1102.929616851238</v>
+        <v>-1169.895488528852</v>
       </c>
       <c r="L14" t="n">
-        <v>-1291.046084890242</v>
+        <v>-1150.659373151219</v>
       </c>
     </row>
     <row r="15">
@@ -1021,16 +1021,16 @@
         <v>-6330</v>
       </c>
       <c r="I15" t="n">
-        <v>-5509.33447661096</v>
+        <v>-6704.468453080724</v>
       </c>
       <c r="J15" t="n">
-        <v>-5858.437592331932</v>
+        <v>-4705.698257431862</v>
       </c>
       <c r="K15" t="n">
-        <v>-6981.701882579453</v>
+        <v>-6488.613159121552</v>
       </c>
       <c r="L15" t="n">
-        <v>-6096.70725932001</v>
+        <v>-5959.161631072342</v>
       </c>
     </row>
     <row r="16">
@@ -1064,13 +1064,13 @@
         <v>9740</v>
       </c>
       <c r="J16" t="n">
-        <v>9363.715309431054</v>
+        <v>8278.568581535066</v>
       </c>
       <c r="K16" t="n">
-        <v>7692.086428969832</v>
+        <v>11198.97162744459</v>
       </c>
       <c r="L16" t="n">
-        <v>5800.945302866619</v>
+        <v>9150.768834469196</v>
       </c>
     </row>
     <row r="17">
@@ -1101,16 +1101,16 @@
         <v>9740</v>
       </c>
       <c r="I17" t="n">
-        <v>9363.715309431054</v>
+        <v>8278.568581535066</v>
       </c>
       <c r="J17" t="n">
-        <v>7692.086428969832</v>
+        <v>11198.97162744459</v>
       </c>
       <c r="K17" t="n">
-        <v>5800.945302866619</v>
+        <v>9150.768834469196</v>
       </c>
       <c r="L17" t="n">
-        <v>3917.079708733329</v>
+        <v>9539.000588278921</v>
       </c>
     </row>
   </sheetData>
